--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +546,40 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I2">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J2">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1671863333333333</v>
+        <v>0.05575033333333334</v>
       </c>
       <c r="N2">
-        <v>0.501559</v>
+        <v>0.167251</v>
       </c>
       <c r="O2">
-        <v>0.04180824957697571</v>
+        <v>0.0120729882668941</v>
       </c>
       <c r="P2">
-        <v>0.04382486376570585</v>
+        <v>0.01249871277105978</v>
       </c>
       <c r="Q2">
-        <v>0.046816018619</v>
+        <v>0.015611375591</v>
       </c>
       <c r="R2">
-        <v>0.421344167571</v>
+        <v>0.140502380319</v>
       </c>
       <c r="S2">
-        <v>0.01373880847180684</v>
+        <v>0.007755716858681897</v>
       </c>
       <c r="T2">
-        <v>0.01717732000246013</v>
+        <v>0.008029203309684733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I3">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J3">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8114996666666666</v>
+        <v>0.8114996666666667</v>
       </c>
       <c r="N3">
         <v>2.434499</v>
       </c>
       <c r="O3">
-        <v>0.2029315430226509</v>
+        <v>0.175733943969037</v>
       </c>
       <c r="P3">
-        <v>0.2127199133357135</v>
+        <v>0.181930773163881</v>
       </c>
       <c r="Q3">
         <v>0.227238571159</v>
@@ -638,10 +638,10 @@
         <v>2.045147140431</v>
       </c>
       <c r="S3">
-        <v>0.06668630307861144</v>
+        <v>0.1128919105819649</v>
       </c>
       <c r="T3">
-        <v>0.08337636921811627</v>
+        <v>0.1168727686424845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I4">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J4">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.386810333333333</v>
+        <v>1.699953333333333</v>
       </c>
       <c r="N4">
-        <v>4.160431</v>
+        <v>5.09986</v>
       </c>
       <c r="O4">
-        <v>0.3467993548032965</v>
+        <v>0.3681326266677181</v>
       </c>
       <c r="P4">
-        <v>0.363527165860087</v>
+        <v>0.3811139264495692</v>
       </c>
       <c r="Q4">
-        <v>0.388338789971</v>
+        <v>0.47602603226</v>
       </c>
       <c r="R4">
-        <v>3.495049109739</v>
+        <v>4.28423429034</v>
       </c>
       <c r="S4">
-        <v>0.1139633914836894</v>
+        <v>0.2364892896240827</v>
       </c>
       <c r="T4">
-        <v>0.1424858384260978</v>
+        <v>0.2448285079965368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,40 +732,40 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I5">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J5">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.5520295</v>
+        <v>0.4718645</v>
       </c>
       <c r="N5">
-        <v>1.104059</v>
+        <v>0.943729</v>
       </c>
       <c r="O5">
-        <v>0.1380458955567727</v>
+        <v>0.1021844037775054</v>
       </c>
       <c r="P5">
-        <v>0.09646967807237321</v>
+        <v>0.07052512513957747</v>
       </c>
       <c r="Q5">
-        <v>0.1545809566785</v>
+        <v>0.1321329128835</v>
       </c>
       <c r="R5">
-        <v>0.927485740071</v>
+        <v>0.7927974773010001</v>
       </c>
       <c r="S5">
-        <v>0.04536392072290973</v>
+        <v>0.06564350809854956</v>
       </c>
       <c r="T5">
-        <v>0.03781165275589936</v>
+        <v>0.04530551094011673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I6">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J6">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.081358</v>
+        <v>1.578706333333334</v>
       </c>
       <c r="N6">
-        <v>3.244074</v>
+        <v>4.736119</v>
       </c>
       <c r="O6">
-        <v>0.2704149570403042</v>
+        <v>0.3418760373188454</v>
       </c>
       <c r="P6">
-        <v>0.2834583789661205</v>
+        <v>0.3539314624759126</v>
       </c>
       <c r="Q6">
-        <v>0.3028051112340001</v>
+        <v>0.4420740835790001</v>
       </c>
       <c r="R6">
-        <v>2.725246001106</v>
+        <v>3.978666752211001</v>
       </c>
       <c r="S6">
-        <v>0.08886234990174297</v>
+        <v>0.2196219931302273</v>
       </c>
       <c r="T6">
-        <v>0.111102576585528</v>
+        <v>0.2273664274046837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H7">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I7">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J7">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1671863333333333</v>
+        <v>0.05575033333333334</v>
       </c>
       <c r="N7">
-        <v>0.501559</v>
+        <v>0.167251</v>
       </c>
       <c r="O7">
-        <v>0.04180824957697571</v>
+        <v>0.0120729882668941</v>
       </c>
       <c r="P7">
-        <v>0.04382486376570585</v>
+        <v>0.01249871277105978</v>
       </c>
       <c r="Q7">
-        <v>0.004412270251777778</v>
+        <v>0.001949143154</v>
       </c>
       <c r="R7">
-        <v>0.039710432266</v>
+        <v>0.017542288386</v>
       </c>
       <c r="S7">
-        <v>0.001294841759363617</v>
+        <v>0.0009683325041630024</v>
       </c>
       <c r="T7">
-        <v>0.001618911225000301</v>
+        <v>0.001002478389679411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H8">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I8">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J8">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8114996666666666</v>
+        <v>0.8114996666666667</v>
       </c>
       <c r="N8">
         <v>2.434499</v>
       </c>
       <c r="O8">
-        <v>0.2029315430226509</v>
+        <v>0.175733943969037</v>
       </c>
       <c r="P8">
-        <v>0.2127199133357135</v>
+        <v>0.181930773163881</v>
       </c>
       <c r="Q8">
-        <v>0.02141655820288889</v>
+        <v>0.028371651346</v>
       </c>
       <c r="R8">
-        <v>0.192749023826</v>
+        <v>0.255344862114</v>
       </c>
       <c r="S8">
-        <v>0.00628498535232937</v>
+        <v>0.01409500997334739</v>
       </c>
       <c r="T8">
-        <v>0.007857974352672383</v>
+        <v>0.01459203614445436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H9">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I9">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J9">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.386810333333333</v>
+        <v>1.699953333333333</v>
       </c>
       <c r="N9">
-        <v>4.160431</v>
+        <v>5.09986</v>
       </c>
       <c r="O9">
-        <v>0.3467993548032965</v>
+        <v>0.3681326266677181</v>
       </c>
       <c r="P9">
-        <v>0.363527165860087</v>
+        <v>0.3811139264495692</v>
       </c>
       <c r="Q9">
-        <v>0.03659977377711111</v>
+        <v>0.05943376843999999</v>
       </c>
       <c r="R9">
-        <v>0.329397963994</v>
+        <v>0.53490391596</v>
       </c>
       <c r="S9">
-        <v>0.01074071005754245</v>
+        <v>0.02952664082535069</v>
       </c>
       <c r="T9">
-        <v>0.01342886569025624</v>
+        <v>0.03056782584493031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H10">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I10">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J10">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.5520295</v>
+        <v>0.4718645</v>
       </c>
       <c r="N10">
-        <v>1.104059</v>
+        <v>0.943729</v>
       </c>
       <c r="O10">
-        <v>0.1380458955567727</v>
+        <v>0.1021844037775054</v>
       </c>
       <c r="P10">
-        <v>0.09646967807237321</v>
+        <v>0.07052512513957747</v>
       </c>
       <c r="Q10">
-        <v>0.01456879454433333</v>
+        <v>0.016497326649</v>
       </c>
       <c r="R10">
-        <v>0.08741276726599999</v>
+        <v>0.098983959894</v>
       </c>
       <c r="S10">
-        <v>0.004275414352054003</v>
+        <v>0.008195856519434079</v>
       </c>
       <c r="T10">
-        <v>0.003563635600522784</v>
+        <v>0.005656575615175757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H11">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I11">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J11">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.081358</v>
+        <v>1.578706333333334</v>
       </c>
       <c r="N11">
-        <v>3.244074</v>
+        <v>4.736119</v>
       </c>
       <c r="O11">
-        <v>0.2704149570403042</v>
+        <v>0.3418760373188454</v>
       </c>
       <c r="P11">
-        <v>0.2834583789661205</v>
+        <v>0.3539314624759126</v>
       </c>
       <c r="Q11">
-        <v>0.02853847943066667</v>
+        <v>0.05519473082600001</v>
       </c>
       <c r="R11">
-        <v>0.256846314876</v>
+        <v>0.496752577434</v>
       </c>
       <c r="S11">
-        <v>0.008375011684898024</v>
+        <v>0.02742069088545943</v>
       </c>
       <c r="T11">
-        <v>0.01047108677808917</v>
+        <v>0.02838761471351478</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H12">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I12">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J12">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1671863333333333</v>
+        <v>0.05575033333333334</v>
       </c>
       <c r="N12">
-        <v>0.501559</v>
+        <v>0.167251</v>
       </c>
       <c r="O12">
-        <v>0.04180824957697571</v>
+        <v>0.0120729882668941</v>
       </c>
       <c r="P12">
-        <v>0.04382486376570585</v>
+        <v>0.01249871277105978</v>
       </c>
       <c r="Q12">
-        <v>0.06906609538383333</v>
+        <v>0.006741032971555556</v>
       </c>
       <c r="R12">
-        <v>0.414396572303</v>
+        <v>0.060669296744</v>
       </c>
       <c r="S12">
-        <v>0.02026840137979885</v>
+        <v>0.003348938904049198</v>
       </c>
       <c r="T12">
-        <v>0.01689408108199755</v>
+        <v>0.003467031071695633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H13">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I13">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J13">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8114996666666666</v>
+        <v>0.8114996666666667</v>
       </c>
       <c r="N13">
         <v>2.434499</v>
       </c>
       <c r="O13">
-        <v>0.2029315430226509</v>
+        <v>0.175733943969037</v>
       </c>
       <c r="P13">
-        <v>0.2127199133357135</v>
+        <v>0.181930773163881</v>
       </c>
       <c r="Q13">
-        <v>0.3352374100471666</v>
+        <v>0.09812221169511111</v>
       </c>
       <c r="R13">
-        <v>2.011424460283</v>
+        <v>0.8830999052559999</v>
       </c>
       <c r="S13">
-        <v>0.09838005676444631</v>
+        <v>0.04874702341372468</v>
       </c>
       <c r="T13">
-        <v>0.0820015661169313</v>
+        <v>0.05046596837694212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H14">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I14">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J14">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.386810333333333</v>
+        <v>1.699953333333333</v>
       </c>
       <c r="N14">
-        <v>4.160431</v>
+        <v>5.09986</v>
       </c>
       <c r="O14">
-        <v>0.3467993548032965</v>
+        <v>0.3681326266677181</v>
       </c>
       <c r="P14">
-        <v>0.363527165860087</v>
+        <v>0.3811139264495692</v>
       </c>
       <c r="Q14">
-        <v>0.5729031365878333</v>
+        <v>0.2055492906488889</v>
       </c>
       <c r="R14">
-        <v>3.437418819527</v>
+        <v>1.84994361584</v>
       </c>
       <c r="S14">
-        <v>0.1681263528736558</v>
+        <v>0.1021166962182847</v>
       </c>
       <c r="T14">
-        <v>0.1401363720919296</v>
+        <v>0.1057175926081021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1209146666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.362744</v>
+      </c>
+      <c r="I15">
+        <v>0.277391050998739</v>
+      </c>
+      <c r="J15">
+        <v>0.277391050998739</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.5</v>
       </c>
-      <c r="G15">
-        <v>0.4131085</v>
-      </c>
-      <c r="H15">
-        <v>0.826217</v>
-      </c>
-      <c r="I15">
-        <v>0.4847943069819622</v>
-      </c>
-      <c r="J15">
-        <v>0.3854907837778066</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.5520295</v>
+        <v>0.4718645</v>
       </c>
       <c r="N15">
-        <v>1.104059</v>
+        <v>0.943729</v>
       </c>
       <c r="O15">
-        <v>0.1380458955567727</v>
+        <v>0.1021844037775054</v>
       </c>
       <c r="P15">
-        <v>0.09646967807237321</v>
+        <v>0.07052512513957747</v>
       </c>
       <c r="Q15">
-        <v>0.22804807870075</v>
+        <v>0.05705533872933333</v>
       </c>
       <c r="R15">
-        <v>0.9121923148029999</v>
+        <v>0.342332032376</v>
       </c>
       <c r="S15">
-        <v>0.06692386426814995</v>
+        <v>0.02834503915952172</v>
       </c>
       <c r="T15">
-        <v>0.03718817181091183</v>
+        <v>0.01956303858428498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H16">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I16">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J16">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.081358</v>
+        <v>1.578706333333334</v>
       </c>
       <c r="N16">
-        <v>3.244074</v>
+        <v>4.736119</v>
       </c>
       <c r="O16">
-        <v>0.2704149570403042</v>
+        <v>0.3418760373188454</v>
       </c>
       <c r="P16">
-        <v>0.2834583789661205</v>
+        <v>0.3539314624759126</v>
       </c>
       <c r="Q16">
-        <v>0.446718181343</v>
+        <v>0.1908887500595556</v>
       </c>
       <c r="R16">
-        <v>2.680309088058</v>
+        <v>1.717998750536</v>
       </c>
       <c r="S16">
-        <v>0.1310956316959113</v>
+        <v>0.09483335330315862</v>
       </c>
       <c r="T16">
-        <v>0.1092705926760363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.397826</v>
-      </c>
-      <c r="I17">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J17">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1671863333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.501559</v>
-      </c>
-      <c r="O17">
-        <v>0.04180824957697571</v>
-      </c>
-      <c r="P17">
-        <v>0.04382486376570585</v>
-      </c>
-      <c r="Q17">
-        <v>0.02217035674822222</v>
-      </c>
-      <c r="R17">
-        <v>0.199533210734</v>
-      </c>
-      <c r="S17">
-        <v>0.006506197966006397</v>
-      </c>
-      <c r="T17">
-        <v>0.008134551456247882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.397826</v>
-      </c>
-      <c r="I18">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J18">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.8114996666666666</v>
-      </c>
-      <c r="N18">
-        <v>2.434499</v>
-      </c>
-      <c r="O18">
-        <v>0.2029315430226509</v>
-      </c>
-      <c r="P18">
-        <v>0.2127199133357135</v>
-      </c>
-      <c r="Q18">
-        <v>0.1076118887971111</v>
-      </c>
-      <c r="R18">
-        <v>0.968506999174</v>
-      </c>
-      <c r="S18">
-        <v>0.0315801978272638</v>
-      </c>
-      <c r="T18">
-        <v>0.03948400364799358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.397826</v>
-      </c>
-      <c r="I19">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J19">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.386810333333333</v>
-      </c>
-      <c r="N19">
-        <v>4.160431</v>
-      </c>
-      <c r="O19">
-        <v>0.3467993548032965</v>
-      </c>
-      <c r="P19">
-        <v>0.363527165860087</v>
-      </c>
-      <c r="Q19">
-        <v>0.1839030692228889</v>
-      </c>
-      <c r="R19">
-        <v>1.655127623006</v>
-      </c>
-      <c r="S19">
-        <v>0.05396890038840886</v>
-      </c>
-      <c r="T19">
-        <v>0.06747608965180335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.397826</v>
-      </c>
-      <c r="I20">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J20">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.5520295</v>
-      </c>
-      <c r="N20">
-        <v>1.104059</v>
-      </c>
-      <c r="O20">
-        <v>0.1380458955567727</v>
-      </c>
-      <c r="P20">
-        <v>0.09646967807237321</v>
-      </c>
-      <c r="Q20">
-        <v>0.07320389595566666</v>
-      </c>
-      <c r="R20">
-        <v>0.439223375734</v>
-      </c>
-      <c r="S20">
-        <v>0.02148269621365898</v>
-      </c>
-      <c r="T20">
-        <v>0.01790621790503925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.397826</v>
-      </c>
-      <c r="I21">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J21">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.081358</v>
-      </c>
-      <c r="N21">
-        <v>3.244074</v>
-      </c>
-      <c r="O21">
-        <v>0.2704149570403042</v>
-      </c>
-      <c r="P21">
-        <v>0.2834583789661205</v>
-      </c>
-      <c r="Q21">
-        <v>0.1433974425693333</v>
-      </c>
-      <c r="R21">
-        <v>1.290576983124</v>
-      </c>
-      <c r="S21">
-        <v>0.04208196375775181</v>
-      </c>
-      <c r="T21">
-        <v>0.05261412292646706</v>
+        <v>0.09817742035771414</v>
       </c>
     </row>
   </sheetData>
